--- a/Inter densas deserti meditans ; Imbribus irriguis; Admirabilem est.xlsx
+++ b/Inter densas deserti meditans ; Imbribus irriguis; Admirabilem est.xlsx
@@ -398,11 +398,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>princeps</t>
+          <t>densus</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gemmis</t>
+          <t>princeps</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -537,37 +537,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>flavus</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>minor</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>copia</t>
+          <t>non</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>quid</t>
+          <t>copia</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -577,31 +577,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>inopia</t>
+          <t>quis</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>quod</t>
+          <t>inopia</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>thesaurum</t>
+          <t>thesaurus</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sonitus</t>
+          <t>liber</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>hostis</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -657,27 +657,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nomen</t>
+          <t>sonitus</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>illustris</t>
+          <t>de</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>potens</t>
+          <t>nomen</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -687,59 +687,59 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Total Average</t>
+          <t>magnificus</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3684210526315789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Total Sum</t>
+          <t>illustris</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Average</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Motetus Sentiment Words</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Sentiment Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>florens</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
+          <t>Total Sum</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>fructus</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
+          <t>Motetus Sentiment Words</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sentiment Value</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>recessus</t>
+          <t>tempus</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -749,7 +749,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>merito</t>
+          <t>florens</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -759,7 +759,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>manus</t>
+          <t>recessus</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -769,7 +769,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cave</t>
+          <t>manus</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
